--- a/Projet 05/erp.xlsx
+++ b/Projet 05/erp.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20391"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01. Sauvegarde Github\OpenClassroom\Projet 05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A914CE5-54A5-4404-9ACA-35F41E9B38CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="24500" windowHeight="14520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -45,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,6 +160,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -441,23 +455,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E826"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="J438" sqref="J438"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3847</v>
       </c>
@@ -491,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3849</v>
       </c>
@@ -508,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3850</v>
       </c>
@@ -525,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4032</v>
       </c>
@@ -542,7 +554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4039</v>
       </c>
@@ -559,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4040</v>
       </c>
@@ -576,7 +588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4041</v>
       </c>
@@ -593,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4042</v>
       </c>
@@ -610,7 +622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4043</v>
       </c>
@@ -627,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4045</v>
       </c>
@@ -644,7 +656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4046</v>
       </c>
@@ -661,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4047</v>
       </c>
@@ -678,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4048</v>
       </c>
@@ -695,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4049</v>
       </c>
@@ -712,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4050</v>
       </c>
@@ -729,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4051</v>
       </c>
@@ -746,7 +758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4052</v>
       </c>
@@ -763,7 +775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4053</v>
       </c>
@@ -780,7 +792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4054</v>
       </c>
@@ -797,7 +809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4055</v>
       </c>
@@ -814,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4056</v>
       </c>
@@ -831,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4057</v>
       </c>
@@ -848,7 +860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4058</v>
       </c>
@@ -865,7 +877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4059</v>
       </c>
@@ -882,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4060</v>
       </c>
@@ -899,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4062</v>
       </c>
@@ -916,7 +928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4063</v>
       </c>
@@ -933,7 +945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4064</v>
       </c>
@@ -950,7 +962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4065</v>
       </c>
@@ -967,7 +979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4066</v>
       </c>
@@ -984,7 +996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4067</v>
       </c>
@@ -1001,7 +1013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4068</v>
       </c>
@@ -1018,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4069</v>
       </c>
@@ -1035,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4070</v>
       </c>
@@ -1052,7 +1064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4071</v>
       </c>
@@ -1069,7 +1081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4072</v>
       </c>
@@ -1086,7 +1098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>4073</v>
       </c>
@@ -1103,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4074</v>
       </c>
@@ -1120,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4075</v>
       </c>
@@ -1137,7 +1149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4076</v>
       </c>
@@ -1154,7 +1166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4077</v>
       </c>
@@ -1171,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4078</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4079</v>
       </c>
@@ -1205,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4081</v>
       </c>
@@ -1222,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4083</v>
       </c>
@@ -1239,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4084</v>
       </c>
@@ -1256,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4085</v>
       </c>
@@ -1273,7 +1285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4086</v>
       </c>
@@ -1290,7 +1302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4087</v>
       </c>
@@ -1307,7 +1319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4090</v>
       </c>
@@ -1324,7 +1336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4092</v>
       </c>
@@ -1341,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4094</v>
       </c>
@@ -1358,7 +1370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4095</v>
       </c>
@@ -1375,7 +1387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4096</v>
       </c>
@@ -1392,7 +1404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4097</v>
       </c>
@@ -1409,7 +1421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4098</v>
       </c>
@@ -1426,7 +1438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4099</v>
       </c>
@@ -1443,7 +1455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4100</v>
       </c>
@@ -1460,7 +1472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4101</v>
       </c>
@@ -1477,7 +1489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4102</v>
       </c>
@@ -1494,7 +1506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4103</v>
       </c>
@@ -1511,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4104</v>
       </c>
@@ -1528,7 +1540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4105</v>
       </c>
@@ -1545,7 +1557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4106</v>
       </c>
@@ -1562,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4107</v>
       </c>
@@ -1579,7 +1591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4108</v>
       </c>
@@ -1596,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4115</v>
       </c>
@@ -1613,7 +1625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4130</v>
       </c>
@@ -1630,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4132</v>
       </c>
@@ -1647,7 +1659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4137</v>
       </c>
@@ -1664,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4138</v>
       </c>
@@ -1681,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4139</v>
       </c>
@@ -1698,7 +1710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4141</v>
       </c>
@@ -1715,7 +1727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4142</v>
       </c>
@@ -1732,7 +1744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4144</v>
       </c>
@@ -1749,7 +1761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4146</v>
       </c>
@@ -1766,7 +1778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4147</v>
       </c>
@@ -1783,7 +1795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4148</v>
       </c>
@@ -1800,7 +1812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4149</v>
       </c>
@@ -1817,7 +1829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4150</v>
       </c>
@@ -1834,7 +1846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4151</v>
       </c>
@@ -1851,7 +1863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4152</v>
       </c>
@@ -1868,7 +1880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4153</v>
       </c>
@@ -1885,7 +1897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4154</v>
       </c>
@@ -1902,7 +1914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4155</v>
       </c>
@@ -1919,7 +1931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4156</v>
       </c>
@@ -1936,7 +1948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4157</v>
       </c>
@@ -1953,7 +1965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4158</v>
       </c>
@@ -1970,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4159</v>
       </c>
@@ -1987,7 +1999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4160</v>
       </c>
@@ -2004,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4161</v>
       </c>
@@ -2021,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4162</v>
       </c>
@@ -2038,7 +2050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4163</v>
       </c>
@@ -2055,7 +2067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4164</v>
       </c>
@@ -2072,7 +2084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4165</v>
       </c>
@@ -2089,7 +2101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4166</v>
       </c>
@@ -2106,7 +2118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4167</v>
       </c>
@@ -2123,7 +2135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4168</v>
       </c>
@@ -2140,7 +2152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4170</v>
       </c>
@@ -2157,7 +2169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4171</v>
       </c>
@@ -2174,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4172</v>
       </c>
@@ -2191,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4173</v>
       </c>
@@ -2208,7 +2220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4174</v>
       </c>
@@ -2225,7 +2237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4176</v>
       </c>
@@ -2242,7 +2254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4177</v>
       </c>
@@ -2259,7 +2271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4178</v>
       </c>
@@ -2276,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4179</v>
       </c>
@@ -2293,7 +2305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4180</v>
       </c>
@@ -2310,7 +2322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4181</v>
       </c>
@@ -2327,7 +2339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4182</v>
       </c>
@@ -2344,7 +2356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4183</v>
       </c>
@@ -2361,7 +2373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4186</v>
       </c>
@@ -2378,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>4187</v>
       </c>
@@ -2395,7 +2407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4188</v>
       </c>
@@ -2412,7 +2424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>4190</v>
       </c>
@@ -2429,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4191</v>
       </c>
@@ -2446,7 +2458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>4192</v>
       </c>
@@ -2463,7 +2475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>4193</v>
       </c>
@@ -2480,7 +2492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4194</v>
       </c>
@@ -2497,7 +2509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4195</v>
       </c>
@@ -2514,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4196</v>
       </c>
@@ -2531,7 +2543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4197</v>
       </c>
@@ -2548,7 +2560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>4198</v>
       </c>
@@ -2565,7 +2577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4200</v>
       </c>
@@ -2582,7 +2594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4201</v>
       </c>
@@ -2599,7 +2611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4202</v>
       </c>
@@ -2616,7 +2628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>4203</v>
       </c>
@@ -2633,7 +2645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4204</v>
       </c>
@@ -2650,7 +2662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4205</v>
       </c>
@@ -2667,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4207</v>
       </c>
@@ -2684,7 +2696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4208</v>
       </c>
@@ -2701,7 +2713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4209</v>
       </c>
@@ -2718,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4210</v>
       </c>
@@ -2735,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4211</v>
       </c>
@@ -2752,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4212</v>
       </c>
@@ -2769,7 +2781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4213</v>
       </c>
@@ -2786,7 +2798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4215</v>
       </c>
@@ -2803,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4216</v>
       </c>
@@ -2820,7 +2832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4217</v>
       </c>
@@ -2837,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>4219</v>
       </c>
@@ -2854,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4220</v>
       </c>
@@ -2871,7 +2883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>4221</v>
       </c>
@@ -2888,7 +2900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>4222</v>
       </c>
@@ -2905,7 +2917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4223</v>
       </c>
@@ -2922,7 +2934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4224</v>
       </c>
@@ -2939,7 +2951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>4225</v>
       </c>
@@ -2956,7 +2968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4227</v>
       </c>
@@ -2973,7 +2985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4228</v>
       </c>
@@ -2990,7 +3002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4229</v>
       </c>
@@ -3007,7 +3019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>4231</v>
       </c>
@@ -3024,7 +3036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>4232</v>
       </c>
@@ -3041,7 +3053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4233</v>
       </c>
@@ -3058,7 +3070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4235</v>
       </c>
@@ -3075,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>4239</v>
       </c>
@@ -3092,7 +3104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>4240</v>
       </c>
@@ -3109,7 +3121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>4241</v>
       </c>
@@ -3126,7 +3138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>4242</v>
       </c>
@@ -3143,7 +3155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>4244</v>
       </c>
@@ -3160,7 +3172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4245</v>
       </c>
@@ -3177,7 +3189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>4246</v>
       </c>
@@ -3194,7 +3206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>4248</v>
       </c>
@@ -3211,7 +3223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>4250</v>
       </c>
@@ -3228,7 +3240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>4251</v>
       </c>
@@ -3245,7 +3257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>4253</v>
       </c>
@@ -3262,7 +3274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>4254</v>
       </c>
@@ -3279,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4256</v>
       </c>
@@ -3296,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>4257</v>
       </c>
@@ -3313,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>4258</v>
       </c>
@@ -3330,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>4260</v>
       </c>
@@ -3347,7 +3359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>4261</v>
       </c>
@@ -3364,7 +3376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>4262</v>
       </c>
@@ -3381,7 +3393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>4263</v>
       </c>
@@ -3398,7 +3410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>4264</v>
       </c>
@@ -3415,7 +3427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>4265</v>
       </c>
@@ -3432,7 +3444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>4267</v>
       </c>
@@ -3449,7 +3461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>4268</v>
       </c>
@@ -3466,7 +3478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>4269</v>
       </c>
@@ -3483,7 +3495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>4270</v>
       </c>
@@ -3500,7 +3512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>4271</v>
       </c>
@@ -3517,7 +3529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>4272</v>
       </c>
@@ -3534,7 +3546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>4274</v>
       </c>
@@ -3551,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>4275</v>
       </c>
@@ -3568,7 +3580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>4276</v>
       </c>
@@ -3585,7 +3597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4277</v>
       </c>
@@ -3602,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>4278</v>
       </c>
@@ -3619,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>4279</v>
       </c>
@@ -3636,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>4280</v>
       </c>
@@ -3653,7 +3665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>4281</v>
       </c>
@@ -3670,7 +3682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>4283</v>
       </c>
@@ -3687,7 +3699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>4285</v>
       </c>
@@ -3704,7 +3716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>4286</v>
       </c>
@@ -3721,7 +3733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>4287</v>
       </c>
@@ -3738,7 +3750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>4288</v>
       </c>
@@ -3755,7 +3767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>4289</v>
       </c>
@@ -3772,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>4297</v>
       </c>
@@ -3789,7 +3801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>4298</v>
       </c>
@@ -3806,7 +3818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>4299</v>
       </c>
@@ -3823,7 +3835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>4300</v>
       </c>
@@ -3840,7 +3852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>4301</v>
       </c>
@@ -3857,7 +3869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>4303</v>
       </c>
@@ -3874,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>4304</v>
       </c>
@@ -3891,7 +3903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>4306</v>
       </c>
@@ -3908,7 +3920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>4307</v>
       </c>
@@ -3925,7 +3937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4334</v>
       </c>
@@ -3942,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>4336</v>
       </c>
@@ -3959,7 +3971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>4337</v>
       </c>
@@ -3976,7 +3988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>4348</v>
       </c>
@@ -3993,7 +4005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>4350</v>
       </c>
@@ -4010,7 +4022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>4352</v>
       </c>
@@ -4027,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>4353</v>
       </c>
@@ -4044,7 +4056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>4355</v>
       </c>
@@ -4061,7 +4073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>4356</v>
       </c>
@@ -4078,7 +4090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>4357</v>
       </c>
@@ -4095,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4358</v>
       </c>
@@ -4112,7 +4124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>4359</v>
       </c>
@@ -4129,7 +4141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>4364</v>
       </c>
@@ -4146,7 +4158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>4391</v>
       </c>
@@ -4163,7 +4175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>4392</v>
       </c>
@@ -4180,7 +4192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>4393</v>
       </c>
@@ -4197,7 +4209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>4394</v>
       </c>
@@ -4214,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>4395</v>
       </c>
@@ -4231,7 +4243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>4396</v>
       </c>
@@ -4248,7 +4260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>4397</v>
       </c>
@@ -4265,7 +4277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>4398</v>
       </c>
@@ -4282,7 +4294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>4399</v>
       </c>
@@ -4299,7 +4311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>4400</v>
       </c>
@@ -4316,7 +4328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>4401</v>
       </c>
@@ -4333,7 +4345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>4402</v>
       </c>
@@ -4350,7 +4362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4404</v>
       </c>
@@ -4367,7 +4379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>4405</v>
       </c>
@@ -4384,7 +4396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>4406</v>
       </c>
@@ -4401,7 +4413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>4407</v>
       </c>
@@ -4418,7 +4430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>4558</v>
       </c>
@@ -4435,7 +4447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>4564</v>
       </c>
@@ -4452,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>4565</v>
       </c>
@@ -4469,7 +4481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>4566</v>
       </c>
@@ -4486,7 +4498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>4568</v>
       </c>
@@ -4503,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>4573</v>
       </c>
@@ -4520,7 +4532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>4577</v>
       </c>
@@ -4537,7 +4549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4578</v>
       </c>
@@ -4554,7 +4566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4582</v>
       </c>
@@ -4571,7 +4583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>4584</v>
       </c>
@@ -4588,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>4594</v>
       </c>
@@ -4605,7 +4617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>4596</v>
       </c>
@@ -4622,7 +4634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>4597</v>
       </c>
@@ -4639,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>4598</v>
       </c>
@@ -4656,7 +4668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>4599</v>
       </c>
@@ -4673,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>4600</v>
       </c>
@@ -4690,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>4601</v>
       </c>
@@ -4707,7 +4719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>4602</v>
       </c>
@@ -4724,7 +4736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>4603</v>
       </c>
@@ -4741,7 +4753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>4604</v>
       </c>
@@ -4758,7 +4770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>4605</v>
       </c>
@@ -4775,7 +4787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>4606</v>
       </c>
@@ -4792,7 +4804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>4607</v>
       </c>
@@ -4809,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4609</v>
       </c>
@@ -4826,7 +4838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>4610</v>
       </c>
@@ -4843,7 +4855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>4611</v>
       </c>
@@ -4860,7 +4872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>4612</v>
       </c>
@@ -4877,7 +4889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>4613</v>
       </c>
@@ -4894,7 +4906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>4614</v>
       </c>
@@ -4911,7 +4923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>4615</v>
       </c>
@@ -4928,7 +4940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>4616</v>
       </c>
@@ -4945,7 +4957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>4617</v>
       </c>
@@ -4962,7 +4974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>4618</v>
       </c>
@@ -4979,7 +4991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>4619</v>
       </c>
@@ -4996,7 +5008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>4620</v>
       </c>
@@ -5013,7 +5025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>4621</v>
       </c>
@@ -5030,7 +5042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>4625</v>
       </c>
@@ -5047,7 +5059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>4626</v>
       </c>
@@ -5064,7 +5076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>4627</v>
       </c>
@@ -5081,7 +5093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>4628</v>
       </c>
@@ -5098,7 +5110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>4629</v>
       </c>
@@ -5115,7 +5127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>4630</v>
       </c>
@@ -5132,7 +5144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>4631</v>
       </c>
@@ -5149,7 +5161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>4632</v>
       </c>
@@ -5166,7 +5178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4633</v>
       </c>
@@ -5183,7 +5195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>4634</v>
       </c>
@@ -5200,7 +5212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>4635</v>
       </c>
@@ -5217,7 +5229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>4636</v>
       </c>
@@ -5234,7 +5246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>4646</v>
       </c>
@@ -5251,7 +5263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>4647</v>
       </c>
@@ -5268,7 +5280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>4648</v>
       </c>
@@ -5285,7 +5297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>4649</v>
       </c>
@@ -5302,7 +5314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>4650</v>
       </c>
@@ -5319,7 +5331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>4651</v>
       </c>
@@ -5336,7 +5348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>4653</v>
       </c>
@@ -5353,7 +5365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>4654</v>
       </c>
@@ -5370,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>4655</v>
       </c>
@@ -5387,7 +5399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>4656</v>
       </c>
@@ -5404,7 +5416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>4657</v>
       </c>
@@ -5421,7 +5433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4658</v>
       </c>
@@ -5438,7 +5450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>4659</v>
       </c>
@@ -5455,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>4662</v>
       </c>
@@ -5472,7 +5484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>4664</v>
       </c>
@@ -5489,7 +5501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>4665</v>
       </c>
@@ -5506,7 +5518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>4666</v>
       </c>
@@ -5523,7 +5535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>4668</v>
       </c>
@@ -5540,7 +5552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>4669</v>
       </c>
@@ -5557,7 +5569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>4670</v>
       </c>
@@ -5574,7 +5586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>4671</v>
       </c>
@@ -5591,7 +5603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>4672</v>
       </c>
@@ -5608,7 +5620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>4673</v>
       </c>
@@ -5625,7 +5637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>4674</v>
       </c>
@@ -5642,7 +5654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>4675</v>
       </c>
@@ -5659,7 +5671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>4676</v>
       </c>
@@ -5676,7 +5688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>4677</v>
       </c>
@@ -5693,7 +5705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>4678</v>
       </c>
@@ -5710,7 +5722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>4679</v>
       </c>
@@ -5727,7 +5739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>4680</v>
       </c>
@@ -5744,7 +5756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>4681</v>
       </c>
@@ -5761,7 +5773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>4682</v>
       </c>
@@ -5778,7 +5790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>4683</v>
       </c>
@@ -5795,7 +5807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>4684</v>
       </c>
@@ -5812,7 +5824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>4686</v>
       </c>
@@ -5829,7 +5841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>4687</v>
       </c>
@@ -5846,7 +5858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>4689</v>
       </c>
@@ -5863,7 +5875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>4690</v>
       </c>
@@ -5880,7 +5892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>4692</v>
       </c>
@@ -5897,7 +5909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>4693</v>
       </c>
@@ -5914,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>4697</v>
       </c>
@@ -5931,7 +5943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>4698</v>
       </c>
@@ -5948,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>4702</v>
       </c>
@@ -5965,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>4703</v>
       </c>
@@ -5982,7 +5994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>4704</v>
       </c>
@@ -5999,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>4705</v>
       </c>
@@ -6016,7 +6028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>4706</v>
       </c>
@@ -6033,7 +6045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>4707</v>
       </c>
@@ -6050,7 +6062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>4708</v>
       </c>
@@ -6067,7 +6079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>4709</v>
       </c>
@@ -6084,7 +6096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>4711</v>
       </c>
@@ -6101,7 +6113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>4712</v>
       </c>
@@ -6118,7 +6130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>4713</v>
       </c>
@@ -6135,7 +6147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>4714</v>
       </c>
@@ -6152,7 +6164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>4715</v>
       </c>
@@ -6169,7 +6181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>4716</v>
       </c>
@@ -6186,7 +6198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>4717</v>
       </c>
@@ -6203,7 +6215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>4718</v>
       </c>
@@ -6220,7 +6232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>4719</v>
       </c>
@@ -6237,7 +6249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>4720</v>
       </c>
@@ -6254,7 +6266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>4721</v>
       </c>
@@ -6271,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>4722</v>
       </c>
@@ -6288,7 +6300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>4723</v>
       </c>
@@ -6305,7 +6317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>4725</v>
       </c>
@@ -6322,7 +6334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>4726</v>
       </c>
@@ -6339,7 +6351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>4727</v>
       </c>
@@ -6356,7 +6368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>4728</v>
       </c>
@@ -6373,7 +6385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>4729</v>
       </c>
@@ -6390,7 +6402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>4730</v>
       </c>
@@ -6407,7 +6419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>4731</v>
       </c>
@@ -6424,7 +6436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>4733</v>
       </c>
@@ -6441,7 +6453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>4734</v>
       </c>
@@ -6458,7 +6470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>4738</v>
       </c>
@@ -6475,7 +6487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>4739</v>
       </c>
@@ -6492,7 +6504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>4740</v>
       </c>
@@ -6509,7 +6521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>4741</v>
       </c>
@@ -6526,7 +6538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>4744</v>
       </c>
@@ -6543,7 +6555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>4748</v>
       </c>
@@ -6560,7 +6572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>4749</v>
       </c>
@@ -6577,7 +6589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>4750</v>
       </c>
@@ -6594,7 +6606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>4752</v>
       </c>
@@ -6611,7 +6623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>4753</v>
       </c>
@@ -6628,7 +6640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>4755</v>
       </c>
@@ -6645,7 +6657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>4757</v>
       </c>
@@ -6662,7 +6674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>4758</v>
       </c>
@@ -6679,7 +6691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>4759</v>
       </c>
@@ -6696,7 +6708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>4776</v>
       </c>
@@ -6713,7 +6725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>4778</v>
       </c>
@@ -6730,7 +6742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>4779</v>
       </c>
@@ -6747,7 +6759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>4780</v>
       </c>
@@ -6764,7 +6776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>4782</v>
       </c>
@@ -6781,7 +6793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>4783</v>
       </c>
@@ -6798,7 +6810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>4784</v>
       </c>
@@ -6815,7 +6827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>4785</v>
       </c>
@@ -6832,7 +6844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>4786</v>
       </c>
@@ -6849,7 +6861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>4788</v>
       </c>
@@ -6866,7 +6878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>4789</v>
       </c>
@@ -6883,7 +6895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>4790</v>
       </c>
@@ -6900,7 +6912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>4791</v>
       </c>
@@ -6917,7 +6929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>4792</v>
       </c>
@@ -6934,7 +6946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>4793</v>
       </c>
@@ -6951,7 +6963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>4794</v>
       </c>
@@ -6968,7 +6980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>4795</v>
       </c>
@@ -6985,7 +6997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>4797</v>
       </c>
@@ -7002,7 +7014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>4798</v>
       </c>
@@ -7019,7 +7031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>4799</v>
       </c>
@@ -7036,7 +7048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>4858</v>
       </c>
@@ -7053,7 +7065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>4860</v>
       </c>
@@ -7070,7 +7082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>4861</v>
       </c>
@@ -7087,7 +7099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>4862</v>
       </c>
@@ -7104,7 +7116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>4863</v>
       </c>
@@ -7121,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>4864</v>
       </c>
@@ -7138,7 +7150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>4865</v>
       </c>
@@ -7155,7 +7167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>4867</v>
       </c>
@@ -7172,7 +7184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>4869</v>
       </c>
@@ -7189,7 +7201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>4870</v>
       </c>
@@ -7206,7 +7218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>4874</v>
       </c>
@@ -7223,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>4876</v>
       </c>
@@ -7240,7 +7252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>4885</v>
       </c>
@@ -7257,7 +7269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>4886</v>
       </c>
@@ -7274,7 +7286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>4888</v>
       </c>
@@ -7291,7 +7303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>4889</v>
       </c>
@@ -7308,7 +7320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>4890</v>
       </c>
@@ -7325,7 +7337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>4891</v>
       </c>
@@ -7342,7 +7354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>4892</v>
       </c>
@@ -7359,7 +7371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>4893</v>
       </c>
@@ -7376,7 +7388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>4899</v>
       </c>
@@ -7393,7 +7405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>4900</v>
       </c>
@@ -7410,7 +7422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>4901</v>
       </c>
@@ -7427,7 +7439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>4902</v>
       </c>
@@ -7444,7 +7456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>4903</v>
       </c>
@@ -7461,7 +7473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>4904</v>
       </c>
@@ -7478,7 +7490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>4907</v>
       </c>
@@ -7495,7 +7507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>4908</v>
       </c>
@@ -7512,7 +7524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>4909</v>
       </c>
@@ -7529,7 +7541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>4910</v>
       </c>
@@ -7546,7 +7558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>4911</v>
       </c>
@@ -7563,7 +7575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>4912</v>
       </c>
@@ -7580,7 +7592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>4913</v>
       </c>
@@ -7597,7 +7609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>4914</v>
       </c>
@@ -7614,7 +7626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>4915</v>
       </c>
@@ -7631,7 +7643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>4918</v>
       </c>
@@ -7648,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>4919</v>
       </c>
@@ -7665,7 +7677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>4920</v>
       </c>
@@ -7682,7 +7694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>4921</v>
       </c>
@@ -7699,7 +7711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>4922</v>
       </c>
@@ -7716,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>4923</v>
       </c>
@@ -7733,7 +7745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>4924</v>
       </c>
@@ -7750,7 +7762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>4925</v>
       </c>
@@ -7767,7 +7779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>4926</v>
       </c>
@@ -7784,7 +7796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>4927</v>
       </c>
@@ -7801,7 +7813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>4928</v>
       </c>
@@ -7818,7 +7830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>4929</v>
       </c>
@@ -7835,7 +7847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>4930</v>
       </c>
@@ -7852,7 +7864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>4931</v>
       </c>
@@ -7869,7 +7881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>4932</v>
       </c>
@@ -7886,7 +7898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>4933</v>
       </c>
@@ -7903,7 +7915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>4934</v>
       </c>
@@ -7920,7 +7932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>4936</v>
       </c>
@@ -7937,7 +7949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>4937</v>
       </c>
@@ -7954,7 +7966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>4938</v>
       </c>
@@ -7971,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>4939</v>
       </c>
@@ -7988,7 +8000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>4940</v>
       </c>
@@ -8005,7 +8017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>4954</v>
       </c>
@@ -8022,7 +8034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>4962</v>
       </c>
@@ -8039,7 +8051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>4963</v>
       </c>
@@ -8056,7 +8068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>4964</v>
       </c>
@@ -8073,7 +8085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>4965</v>
       </c>
@@ -8090,7 +8102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>4970</v>
       </c>
@@ -8107,7 +8119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>4973</v>
       </c>
@@ -8124,7 +8136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>4974</v>
       </c>
@@ -8141,7 +8153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>4975</v>
       </c>
@@ -8158,7 +8170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>4976</v>
       </c>
@@ -8175,7 +8187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>4977</v>
       </c>
@@ -8192,7 +8204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>4978</v>
       </c>
@@ -8209,7 +8221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>4980</v>
       </c>
@@ -8226,7 +8238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>4994</v>
       </c>
@@ -8243,7 +8255,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>4995</v>
       </c>
@@ -8260,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>4996</v>
       </c>
@@ -8277,7 +8289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>5000</v>
       </c>
@@ -8294,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>5001</v>
       </c>
@@ -8311,7 +8323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>5002</v>
       </c>
@@ -8328,7 +8340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>5003</v>
       </c>
@@ -8345,7 +8357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>5004</v>
       </c>
@@ -8362,7 +8374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>5006</v>
       </c>
@@ -8379,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>5007</v>
       </c>
@@ -8396,7 +8408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>5008</v>
       </c>
@@ -8413,7 +8425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>5010</v>
       </c>
@@ -8430,7 +8442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>5016</v>
       </c>
@@ -8447,7 +8459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>5017</v>
       </c>
@@ -8464,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>5018</v>
       </c>
@@ -8481,7 +8493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>5019</v>
       </c>
@@ -8498,7 +8510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>5020</v>
       </c>
@@ -8515,7 +8527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>5021</v>
       </c>
@@ -8532,7 +8544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>5024</v>
       </c>
@@ -8549,7 +8561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>5025</v>
       </c>
@@ -8566,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>5026</v>
       </c>
@@ -8583,7 +8595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>5027</v>
       </c>
@@ -8600,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>5047</v>
       </c>
@@ -8617,7 +8629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>5056</v>
       </c>
@@ -8634,7 +8646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>5061</v>
       </c>
@@ -8651,7 +8663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>5062</v>
       </c>
@@ -8668,7 +8680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>5063</v>
       </c>
@@ -8685,7 +8697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>5067</v>
       </c>
@@ -8702,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>5068</v>
       </c>
@@ -8719,7 +8731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>5069</v>
       </c>
@@ -8736,7 +8748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>5070</v>
       </c>
@@ -8753,7 +8765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>5075</v>
       </c>
@@ -8770,7 +8782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>5375</v>
       </c>
@@ -8787,7 +8799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>5377</v>
       </c>
@@ -8804,7 +8816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>5379</v>
       </c>
@@ -8821,7 +8833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>5380</v>
       </c>
@@ -8838,7 +8850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>5382</v>
       </c>
@@ -8855,7 +8867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>5383</v>
       </c>
@@ -8872,7 +8884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>5384</v>
       </c>
@@ -8889,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>5389</v>
       </c>
@@ -8906,7 +8918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>5391</v>
       </c>
@@ -8923,7 +8935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>5393</v>
       </c>
@@ -8940,7 +8952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>5394</v>
       </c>
@@ -8957,7 +8969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>5395</v>
       </c>
@@ -8974,7 +8986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>5396</v>
       </c>
@@ -8991,7 +9003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>5397</v>
       </c>
@@ -9008,7 +9020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>5398</v>
       </c>
@@ -9025,7 +9037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>5439</v>
       </c>
@@ -9042,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>5443</v>
       </c>
@@ -9059,7 +9071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>5444</v>
       </c>
@@ -9076,7 +9088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>5445</v>
       </c>
@@ -9093,7 +9105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>5446</v>
       </c>
@@ -9110,7 +9122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>5448</v>
       </c>
@@ -9127,7 +9139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>5465</v>
       </c>
@@ -9144,7 +9156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>5474</v>
       </c>
@@ -9161,7 +9173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>5477</v>
       </c>
@@ -9178,7 +9190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>5479</v>
       </c>
@@ -9195,7 +9207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>5480</v>
       </c>
@@ -9212,7 +9224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>5481</v>
       </c>
@@ -9229,7 +9241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>5483</v>
       </c>
@@ -9246,7 +9258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>5484</v>
       </c>
@@ -9263,7 +9275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>5485</v>
       </c>
@@ -9280,7 +9292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>5486</v>
       </c>
@@ -9297,7 +9309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>5487</v>
       </c>
@@ -9314,7 +9326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>5488</v>
       </c>
@@ -9331,7 +9343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>5491</v>
       </c>
@@ -9348,7 +9360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>5504</v>
       </c>
@@ -9365,7 +9377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>5505</v>
       </c>
@@ -9382,7 +9394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>5506</v>
       </c>
@@ -9399,7 +9411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>5519</v>
       </c>
@@ -9416,7 +9428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>5520</v>
       </c>
@@ -9433,7 +9445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>5522</v>
       </c>
@@ -9450,7 +9462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>5523</v>
       </c>
@@ -9467,7 +9479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>5524</v>
       </c>
@@ -9484,7 +9496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>5525</v>
       </c>
@@ -9501,7 +9513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>5544</v>
       </c>
@@ -9518,7 +9530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>5545</v>
       </c>
@@ -9535,7 +9547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>5546</v>
       </c>
@@ -9552,7 +9564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>5547</v>
       </c>
@@ -9569,7 +9581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>5548</v>
       </c>
@@ -9586,7 +9598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>5550</v>
       </c>
@@ -9603,7 +9615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>5551</v>
       </c>
@@ -9620,7 +9632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>5552</v>
       </c>
@@ -9637,7 +9649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>5554</v>
       </c>
@@ -9654,7 +9666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>5559</v>
       </c>
@@ -9671,7 +9683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>5560</v>
       </c>
@@ -9688,7 +9700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>5561</v>
       </c>
@@ -9705,7 +9717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>5563</v>
       </c>
@@ -9722,7 +9734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>5564</v>
       </c>
@@ -9739,7 +9751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>5565</v>
       </c>
@@ -9756,7 +9768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>5566</v>
       </c>
@@ -9773,7 +9785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>5569</v>
       </c>
@@ -9790,7 +9802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>5570</v>
       </c>
@@ -9807,7 +9819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>5573</v>
       </c>
@@ -9824,7 +9836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>5574</v>
       </c>
@@ -9841,7 +9853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>5580</v>
       </c>
@@ -9858,7 +9870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>5608</v>
       </c>
@@ -9875,7 +9887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>5609</v>
       </c>
@@ -9892,7 +9904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>5610</v>
       </c>
@@ -9909,7 +9921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>5611</v>
       </c>
@@ -9926,7 +9938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>5612</v>
       </c>
@@ -9943,7 +9955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>5613</v>
       </c>
@@ -9960,7 +9972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>5614</v>
       </c>
@@ -9977,7 +9989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>5615</v>
       </c>
@@ -9994,7 +10006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>5616</v>
       </c>
@@ -10011,7 +10023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>5617</v>
       </c>
@@ -10028,7 +10040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>5618</v>
       </c>
@@ -10045,7 +10057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>5619</v>
       </c>
@@ -10062,7 +10074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>5628</v>
       </c>
@@ -10079,7 +10091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>5629</v>
       </c>
@@ -10096,7 +10108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>5630</v>
       </c>
@@ -10113,7 +10125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>5690</v>
       </c>
@@ -10130,7 +10142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>5693</v>
       </c>
@@ -10147,7 +10159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>5694</v>
       </c>
@@ -10164,7 +10176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>5695</v>
       </c>
@@ -10181,7 +10193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>5696</v>
       </c>
@@ -10198,7 +10210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>5697</v>
       </c>
@@ -10215,7 +10227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>5700</v>
       </c>
@@ -10232,7 +10244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>5703</v>
       </c>
@@ -10249,7 +10261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>5704</v>
       </c>
@@ -10266,7 +10278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>5705</v>
       </c>
@@ -10283,7 +10295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>5706</v>
       </c>
@@ -10300,7 +10312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>5707</v>
       </c>
@@ -10317,7 +10329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>5709</v>
       </c>
@@ -10334,7 +10346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>5711</v>
       </c>
@@ -10351,7 +10363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>5712</v>
       </c>
@@ -10368,7 +10380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>5715</v>
       </c>
@@ -10385,7 +10397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>5722</v>
       </c>
@@ -10402,7 +10414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>5736</v>
       </c>
@@ -10419,7 +10431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>5737</v>
       </c>
@@ -10436,7 +10448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>5738</v>
       </c>
@@ -10453,7 +10465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>5739</v>
       </c>
@@ -10470,7 +10482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>5741</v>
       </c>
@@ -10487,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>5742</v>
       </c>
@@ -10504,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>5743</v>
       </c>
@@ -10521,7 +10533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>5747</v>
       </c>
@@ -10538,7 +10550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>5753</v>
       </c>
@@ -10555,7 +10567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>5756</v>
       </c>
@@ -10572,7 +10584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>5760</v>
       </c>
@@ -10589,7 +10601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>5761</v>
       </c>
@@ -10606,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>5764</v>
       </c>
@@ -10623,7 +10635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>5766</v>
       </c>
@@ -10640,7 +10652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>5767</v>
       </c>
@@ -10657,7 +10669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>5768</v>
       </c>
@@ -10674,7 +10686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>5769</v>
       </c>
@@ -10691,7 +10703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>5770</v>
       </c>
@@ -10708,7 +10720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>5771</v>
       </c>
@@ -10725,7 +10737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>5772</v>
       </c>
@@ -10742,7 +10754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>5773</v>
       </c>
@@ -10759,7 +10771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>5777</v>
       </c>
@@ -10776,7 +10788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>5778</v>
       </c>
@@ -10793,7 +10805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>5779</v>
       </c>
@@ -10810,7 +10822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>5794</v>
       </c>
@@ -10827,7 +10839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>5795</v>
       </c>
@@ -10844,7 +10856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>5796</v>
       </c>
@@ -10861,7 +10873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>5797</v>
       </c>
@@ -10878,7 +10890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>5799</v>
       </c>
@@ -10895,7 +10907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>5800</v>
       </c>
@@ -10912,7 +10924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>5801</v>
       </c>
@@ -10929,7 +10941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>5802</v>
       </c>
@@ -10946,7 +10958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>5803</v>
       </c>
@@ -10963,7 +10975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>5804</v>
       </c>
@@ -10980,7 +10992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>5805</v>
       </c>
@@ -10997,7 +11009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>5806</v>
       </c>
@@ -11014,7 +11026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>5807</v>
       </c>
@@ -11031,7 +11043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>5808</v>
       </c>
@@ -11048,7 +11060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>5809</v>
       </c>
@@ -11065,7 +11077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>5810</v>
       </c>
@@ -11082,7 +11094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>5815</v>
       </c>
@@ -11099,7 +11111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>5816</v>
       </c>
@@ -11116,7 +11128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>5817</v>
       </c>
@@ -11133,7 +11145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>5818</v>
       </c>
@@ -11150,7 +11162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>5819</v>
       </c>
@@ -11167,7 +11179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>5820</v>
       </c>
@@ -11184,7 +11196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>5826</v>
       </c>
@@ -11201,7 +11213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>5827</v>
       </c>
@@ -11218,7 +11230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>5829</v>
       </c>
@@ -11235,7 +11247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>5890</v>
       </c>
@@ -11252,7 +11264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>5891</v>
       </c>
@@ -11269,7 +11281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>5892</v>
       </c>
@@ -11286,7 +11298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>5893</v>
       </c>
@@ -11303,7 +11315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>5894</v>
       </c>
@@ -11320,7 +11332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>5896</v>
       </c>
@@ -11337,7 +11349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>5899</v>
       </c>
@@ -11354,7 +11366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>5900</v>
       </c>
@@ -11371,7 +11383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>5902</v>
       </c>
@@ -11388,7 +11400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>5903</v>
       </c>
@@ -11405,7 +11417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>5904</v>
       </c>
@@ -11422,7 +11434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>5905</v>
       </c>
@@ -11439,7 +11451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>5906</v>
       </c>
@@ -11456,7 +11468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>5907</v>
       </c>
@@ -11473,7 +11485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>5912</v>
       </c>
@@ -11490,7 +11502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>5913</v>
       </c>
@@ -11507,7 +11519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>5914</v>
       </c>
@@ -11524,7 +11536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>5916</v>
       </c>
@@ -11541,7 +11553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>5917</v>
       </c>
@@ -11558,7 +11570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>5918</v>
       </c>
@@ -11575,7 +11587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>5922</v>
       </c>
@@ -11592,7 +11604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>5925</v>
       </c>
@@ -11609,7 +11621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>5930</v>
       </c>
@@ -11626,7 +11638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>5932</v>
       </c>
@@ -11643,7 +11655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>5950</v>
       </c>
@@ -11660,7 +11672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>5951</v>
       </c>
@@ -11677,7 +11689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>5952</v>
       </c>
@@ -11694,7 +11706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>5953</v>
       </c>
@@ -11711,7 +11723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>5954</v>
       </c>
@@ -11728,7 +11740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>5955</v>
       </c>
@@ -11745,7 +11757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>5956</v>
       </c>
@@ -11762,7 +11774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>5957</v>
       </c>
@@ -11779,7 +11791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>5958</v>
       </c>
@@ -11796,7 +11808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>5959</v>
       </c>
@@ -11813,7 +11825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>5960</v>
       </c>
@@ -11830,7 +11842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>5962</v>
       </c>
@@ -11847,7 +11859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>5963</v>
       </c>
@@ -11864,7 +11876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>5964</v>
       </c>
@@ -11881,7 +11893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>5967</v>
       </c>
@@ -11898,7 +11910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>5968</v>
       </c>
@@ -11915,7 +11927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>5969</v>
       </c>
@@ -11932,7 +11944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>6035</v>
       </c>
@@ -11949,7 +11961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>6038</v>
       </c>
@@ -11966,7 +11978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>6041</v>
       </c>
@@ -11983,7 +11995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>6042</v>
       </c>
@@ -12000,7 +12012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>6047</v>
       </c>
@@ -12017,7 +12029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>6049</v>
       </c>
@@ -12034,7 +12046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>6050</v>
       </c>
@@ -12051,7 +12063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>6070</v>
       </c>
@@ -12068,7 +12080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>6072</v>
       </c>
@@ -12085,7 +12097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>6073</v>
       </c>
@@ -12102,7 +12114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>6093</v>
       </c>
@@ -12119,7 +12131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>6094</v>
       </c>
@@ -12136,7 +12148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:5">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>6095</v>
       </c>
@@ -12153,7 +12165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="689" spans="1:5">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>6100</v>
       </c>
@@ -12170,7 +12182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:5">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>6101</v>
       </c>
@@ -12187,7 +12199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="691" spans="1:5">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>6103</v>
       </c>
@@ -12204,7 +12216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:5">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>6104</v>
       </c>
@@ -12221,7 +12233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:5">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>6105</v>
       </c>
@@ -12238,7 +12250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>6106</v>
       </c>
@@ -12255,7 +12267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="695" spans="1:5">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>6107</v>
       </c>
@@ -12272,7 +12284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="696" spans="1:5">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>6108</v>
       </c>
@@ -12289,7 +12301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:5">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>6109</v>
       </c>
@@ -12306,7 +12318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>6125</v>
       </c>
@@ -12323,7 +12335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:5">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>6126</v>
       </c>
@@ -12340,7 +12352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="700" spans="1:5">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>6127</v>
       </c>
@@ -12357,7 +12369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="701" spans="1:5">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>6128</v>
       </c>
@@ -12374,7 +12386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="702" spans="1:5">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>6129</v>
       </c>
@@ -12391,7 +12403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="703" spans="1:5">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>6137</v>
       </c>
@@ -12408,7 +12420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:5">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>6201</v>
       </c>
@@ -12425,7 +12437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="705" spans="1:5">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>6202</v>
       </c>
@@ -12442,7 +12454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="706" spans="1:5">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>6204</v>
       </c>
@@ -12459,7 +12471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="707" spans="1:5">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>6205</v>
       </c>
@@ -12476,7 +12488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="708" spans="1:5">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>6206</v>
       </c>
@@ -12493,7 +12505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="709" spans="1:5">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>6207</v>
       </c>
@@ -12510,7 +12522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="710" spans="1:5">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>6212</v>
       </c>
@@ -12527,7 +12539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="711" spans="1:5">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>6213</v>
       </c>
@@ -12544,7 +12556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="712" spans="1:5">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>6214</v>
       </c>
@@ -12561,7 +12573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="713" spans="1:5">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>6215</v>
       </c>
@@ -12578,7 +12590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="714" spans="1:5">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>6216</v>
       </c>
@@ -12595,7 +12607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="715" spans="1:5">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>6221</v>
       </c>
@@ -12612,7 +12624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="716" spans="1:5">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>6222</v>
       </c>
@@ -12629,7 +12641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="717" spans="1:5">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>6223</v>
       </c>
@@ -12646,7 +12658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="718" spans="1:5">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>6225</v>
       </c>
@@ -12663,7 +12675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:5">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>6226</v>
       </c>
@@ -12680,7 +12692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:5">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>6227</v>
       </c>
@@ -12697,7 +12709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:5">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>6278</v>
       </c>
@@ -12714,7 +12726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="722" spans="1:5">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>6279</v>
       </c>
@@ -12731,7 +12743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="723" spans="1:5">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>6280</v>
       </c>
@@ -12748,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:5">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>6299</v>
       </c>
@@ -12765,7 +12777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="725" spans="1:5">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>6301</v>
       </c>
@@ -12782,7 +12794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="726" spans="1:5">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>6324</v>
       </c>
@@ -12799,7 +12811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="727" spans="1:5">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>6325</v>
       </c>
@@ -12816,7 +12828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="728" spans="1:5">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>6327</v>
       </c>
@@ -12833,7 +12845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:5">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>6328</v>
       </c>
@@ -12850,7 +12862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="730" spans="1:5">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>6567</v>
       </c>
@@ -12867,7 +12879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="731" spans="1:5">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>6568</v>
       </c>
@@ -12884,7 +12896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="732" spans="1:5">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>6569</v>
       </c>
@@ -12901,7 +12913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="733" spans="1:5">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>6570</v>
       </c>
@@ -12918,7 +12930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:5">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>6572</v>
       </c>
@@ -12935,7 +12947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:5">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>6573</v>
       </c>
@@ -12952,7 +12964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="736" spans="1:5">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>6575</v>
       </c>
@@ -12969,7 +12981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="737" spans="1:5">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>6578</v>
       </c>
@@ -12986,7 +12998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:5">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>6584</v>
       </c>
@@ -13003,7 +13015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="739" spans="1:5">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>6585</v>
       </c>
@@ -13020,7 +13032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="740" spans="1:5">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>6592</v>
       </c>
@@ -13037,7 +13049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="741" spans="1:5">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>6594</v>
       </c>
@@ -13054,7 +13066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="742" spans="1:5">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>6615</v>
       </c>
@@ -13071,7 +13083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="743" spans="1:5">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>6616</v>
       </c>
@@ -13088,7 +13100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="744" spans="1:5">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>6617</v>
       </c>
@@ -13105,7 +13117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="745" spans="1:5">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>6618</v>
       </c>
@@ -13122,7 +13134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="746" spans="1:5">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>6620</v>
       </c>
@@ -13139,7 +13151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="747" spans="1:5">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>6621</v>
       </c>
@@ -13156,7 +13168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="748" spans="1:5">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>6622</v>
       </c>
@@ -13173,7 +13185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="749" spans="1:5">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>6626</v>
       </c>
@@ -13190,7 +13202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="750" spans="1:5">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>6627</v>
       </c>
@@ -13207,7 +13219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="751" spans="1:5">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>6628</v>
       </c>
@@ -13224,7 +13236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="752" spans="1:5">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>6629</v>
       </c>
@@ -13241,7 +13253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="753" spans="1:5">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>6631</v>
       </c>
@@ -13258,7 +13270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="754" spans="1:5">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>6632</v>
       </c>
@@ -13275,7 +13287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="755" spans="1:5">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>6635</v>
       </c>
@@ -13292,7 +13304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="756" spans="1:5">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>6663</v>
       </c>
@@ -13309,7 +13321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="757" spans="1:5">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>6664</v>
       </c>
@@ -13326,7 +13338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="758" spans="1:5">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>6665</v>
       </c>
@@ -13343,7 +13355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="759" spans="1:5">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>6666</v>
       </c>
@@ -13360,7 +13372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="760" spans="1:5">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>6738</v>
       </c>
@@ -13377,7 +13389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="761" spans="1:5">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>6751</v>
       </c>
@@ -13394,7 +13406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:5">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>6753</v>
       </c>
@@ -13411,7 +13423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="763" spans="1:5">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>6821</v>
       </c>
@@ -13428,7 +13440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="764" spans="1:5">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>6824</v>
       </c>
@@ -13445,7 +13457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="765" spans="1:5">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>6825</v>
       </c>
@@ -13462,7 +13474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="766" spans="1:5">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>6826</v>
       </c>
@@ -13479,7 +13491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="767" spans="1:5">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>6864</v>
       </c>
@@ -13496,7 +13508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="768" spans="1:5">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>6866</v>
       </c>
@@ -13513,7 +13525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="769" spans="1:5">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>6869</v>
       </c>
@@ -13530,7 +13542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="770" spans="1:5">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>6875</v>
       </c>
@@ -13547,7 +13559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="771" spans="1:5">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>6884</v>
       </c>
@@ -13564,7 +13576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="772" spans="1:5">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>6886</v>
       </c>
@@ -13581,7 +13593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:5">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>6887</v>
       </c>
@@ -13598,7 +13610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="774" spans="1:5">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>6898</v>
       </c>
@@ -13615,7 +13627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="775" spans="1:5">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>6899</v>
       </c>
@@ -13632,7 +13644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="776" spans="1:5">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>6900</v>
       </c>
@@ -13649,7 +13661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:5">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>6901</v>
       </c>
@@ -13666,7 +13678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:5">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>6902</v>
       </c>
@@ -13683,7 +13695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="779" spans="1:5">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>6903</v>
       </c>
@@ -13700,7 +13712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="780" spans="1:5">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>6904</v>
       </c>
@@ -13717,7 +13729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="781" spans="1:5">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>6905</v>
       </c>
@@ -13734,7 +13746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="782" spans="1:5">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>6906</v>
       </c>
@@ -13751,7 +13763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="783" spans="1:5">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>6907</v>
       </c>
@@ -13768,7 +13780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="784" spans="1:5">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>6908</v>
       </c>
@@ -13785,7 +13797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="785" spans="1:5">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>6909</v>
       </c>
@@ -13802,7 +13814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="786" spans="1:5">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>6920</v>
       </c>
@@ -13819,7 +13831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="787" spans="1:5">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>6926</v>
       </c>
@@ -13836,7 +13848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="788" spans="1:5">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>6928</v>
       </c>
@@ -13853,7 +13865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="789" spans="1:5">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>6930</v>
       </c>
@@ -13870,7 +13882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="790" spans="1:5">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>7008</v>
       </c>
@@ -13887,7 +13899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="791" spans="1:5">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>7009</v>
       </c>
@@ -13904,7 +13916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="792" spans="1:5">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>7010</v>
       </c>
@@ -13921,7 +13933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="793" spans="1:5">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>7015</v>
       </c>
@@ -13938,7 +13950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="794" spans="1:5">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>7023</v>
       </c>
@@ -13955,7 +13967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="795" spans="1:5">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>7025</v>
       </c>
@@ -13972,7 +13984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="796" spans="1:5">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>7081</v>
       </c>
@@ -13989,7 +14001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="797" spans="1:5">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>7084</v>
       </c>
@@ -14006,7 +14018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="798" spans="1:5">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>7085</v>
       </c>
@@ -14023,7 +14035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="799" spans="1:5">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>7086</v>
       </c>
@@ -14040,7 +14052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="800" spans="1:5">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>7087</v>
       </c>
@@ -14057,7 +14069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="801" spans="1:5">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>7088</v>
       </c>
@@ -14074,7 +14086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="802" spans="1:5">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>7131</v>
       </c>
@@ -14091,7 +14103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="803" spans="1:5">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>7132</v>
       </c>
@@ -14108,7 +14120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="804" spans="1:5">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>7133</v>
       </c>
@@ -14125,7 +14137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="805" spans="1:5">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>7136</v>
       </c>
@@ -14142,7 +14154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="806" spans="1:5">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>7137</v>
       </c>
@@ -14159,7 +14171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="807" spans="1:5">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>7159</v>
       </c>
@@ -14176,7 +14188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="808" spans="1:5">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>7161</v>
       </c>
@@ -14193,7 +14205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="809" spans="1:5">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>7162</v>
       </c>
@@ -14210,7 +14222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="810" spans="1:5">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>7163</v>
       </c>
@@ -14227,7 +14239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="811" spans="1:5">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>7164</v>
       </c>
@@ -14244,7 +14256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="812" spans="1:5">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>7168</v>
       </c>
@@ -14261,7 +14273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="813" spans="1:5">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>7169</v>
       </c>
@@ -14278,7 +14290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="814" spans="1:5">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>7170</v>
       </c>
@@ -14295,7 +14307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="815" spans="1:5">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>7192</v>
       </c>
@@ -14312,7 +14324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="816" spans="1:5">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>7193</v>
       </c>
@@ -14329,7 +14341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="817" spans="1:5">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>7194</v>
       </c>
@@ -14346,7 +14358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="818" spans="1:5">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>7195</v>
       </c>
@@ -14363,7 +14375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="819" spans="1:5">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>7196</v>
       </c>
@@ -14380,7 +14392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="820" spans="1:5">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>7200</v>
       </c>
@@ -14397,7 +14409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="821" spans="1:5">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>7201</v>
       </c>
@@ -14414,7 +14426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="822" spans="1:5">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>7203</v>
       </c>
@@ -14431,7 +14443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="823" spans="1:5">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>7204</v>
       </c>
@@ -14448,7 +14460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="824" spans="1:5">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>7247</v>
       </c>
@@ -14465,7 +14477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="825" spans="1:5">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>7329</v>
       </c>
@@ -14482,7 +14494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="826" spans="1:5">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>7338</v>
       </c>

--- a/Projet 05/erp.xlsx
+++ b/Projet 05/erp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\01. Sauvegarde Github\OpenClassroom\Projet 05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A914CE5-54A5-4404-9ACA-35F41E9B38CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B33CD42-827F-4FDF-B315-5BDBBF5E89CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,7 +458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E826"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
